--- a/document/data source_課程資料/技高/skills_info/skills_info_數學B2.xlsx
+++ b/document/data source_課程資料/技高/skills_info/skills_info_數學B2.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\技高\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25637" windowHeight="7089"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="規則一樣 這是這個系統的使用者主要會使用的部分 依功文數學的精" sheetId="1" r:id="rId4"/>
+    <sheet name="規則一樣 這是這個系統的使用者主要會使用的部分 依功文數學的精" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -31,131 +39,184 @@
     <t>input_type</t>
   </si>
   <si>
+    <t>consecutive_correct_required</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>order_index</t>
+  </si>
+  <si>
+    <t>trig_standard_angle_def</t>
+  </si>
+  <si>
+    <t>Standard Position &amp; Quadrantal Angle</t>
+  </si>
+  <si>
+    <t>標準位置角與象限角</t>
+  </si>
+  <si>
+    <t>三角函數</t>
+  </si>
+  <si>
+    <t>熟練判斷標準位置角及其終邊所在的象限。</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>trig_coterminal_angle_find</t>
+  </si>
+  <si>
+    <t>Coterminal Angles</t>
+  </si>
+  <si>
+    <t>同界角</t>
+  </si>
+  <si>
+    <t>熟練計算廣義角 θ 的最小正同界角與最大負同界角。</t>
+  </si>
+  <si>
+    <t>trig_graph_transform_amplitude</t>
+  </si>
+  <si>
+    <t>Graph Transformation (Amplitude)</t>
+  </si>
+  <si>
+    <t>三角圖形 (振幅伸縮)</t>
+  </si>
+  <si>
+    <t>熟練 y = a sin(x) 或 y = a cos(x) 的圖形與振幅 |a|。</t>
+  </si>
+  <si>
+    <t>handwriting</t>
+  </si>
+  <si>
+    <t>trig_graph_transform_period</t>
+  </si>
+  <si>
+    <t>Graph Transformation (Period)</t>
+  </si>
+  <si>
+    <t>三角圖形 (週期伸縮)</t>
+  </si>
+  <si>
+    <t>熟練 y = sin(bx) 或 y = cos(bx) 的圖形與週期 2π/|b|。</t>
+  </si>
+  <si>
+    <t>trig_graph_transform_horizontal_shift</t>
+  </si>
+  <si>
+    <t>Graph Transformation (Horizontal Shift)</t>
+  </si>
+  <si>
+    <t>三角圖形 (水平平移)</t>
+  </si>
+  <si>
+    <t>熟練 y = sin(x-h) 或 y = cos(x-h) 的圖形平移。</t>
+  </si>
+  <si>
+    <t>trig_graph_transform_vertical_shift</t>
+  </si>
+  <si>
+    <t>Graph Transformation (Vertical Shift)</t>
+  </si>
+  <si>
+    <t>三角圖形 (鉛直平移)</t>
+  </si>
+  <si>
+    <t>熟練 y = sin(x) + k 或 y = cos(x) + k 的圖形平移。</t>
+  </si>
+  <si>
     <t>gemini_prompt</t>
-  </si>
-  <si>
-    <t>consecutive_correct_required</t>
-  </si>
-  <si>
-    <t>is_active</t>
-  </si>
-  <si>
-    <t>order_index</t>
-  </si>
-  <si>
-    <t>trig_standard_angle_def</t>
-  </si>
-  <si>
-    <t>Standard Position &amp; Quadrantal Angle</t>
-  </si>
-  <si>
-    <t>標準位置角與象限角</t>
-  </si>
-  <si>
-    <t>三角函數</t>
-  </si>
-  <si>
-    <t>熟練判斷標準位置角及其終邊所在的象限。</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生標準位置角：始邊在 x 軸正向，逆時針為正角，順時針為負角。並檢查終邊落點。</t>
-  </si>
-  <si>
-    <t>trig_coterminal_angle_find</t>
-  </si>
-  <si>
-    <t>Coterminal Angles</t>
-  </si>
-  <si>
-    <t>同界角</t>
-  </si>
-  <si>
-    <t>熟練計算廣義角 θ 的最小正同界角與最大負同界角。</t>
-  </si>
-  <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生同界角 = θ ± 360°n (n為整數)。</t>
-  </si>
-  <si>
-    <t>trig_graph_transform_amplitude</t>
-  </si>
-  <si>
-    <t>Graph Transformation (Amplitude)</t>
-  </si>
-  <si>
-    <t>三角圖形 (振幅伸縮)</t>
-  </si>
-  <si>
-    <t>熟練 y = a sin(x) 或 y = a cos(x) 的圖形與振幅 |a|。</t>
-  </si>
-  <si>
-    <t>handwriting</t>
-  </si>
-  <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生 y = a sin(x) 會將圖形沿 y 軸伸縮 a 倍，最大值變為 |a|。</t>
-  </si>
-  <si>
-    <t>trig_graph_transform_period</t>
-  </si>
-  <si>
-    <t>Graph Transformation (Period)</t>
-  </si>
-  <si>
-    <t>三角圖形 (週期伸縮)</t>
-  </si>
-  <si>
-    <t>熟練 y = sin(bx) 或 y = cos(bx) 的圖形與週期 2π/|b|。</t>
-  </si>
-  <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生 y = sin(bx) 會將圖形沿 x 軸伸縮 1/b 倍，週期變為 2π/|b|。</t>
-  </si>
-  <si>
-    <t>trig_graph_transform_horizontal_shift</t>
-  </si>
-  <si>
-    <t>Graph Transformation (Horizontal Shift)</t>
-  </si>
-  <si>
-    <t>三角圖形 (水平平移)</t>
-  </si>
-  <si>
-    <t>熟練 y = sin(x-h) 或 y = cos(x-h) 的圖形平移。</t>
-  </si>
-  <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生 y = sin(x**-h**) 是將 y = sin(x) 的圖形「向右」平移 h 單位。</t>
-  </si>
-  <si>
-    <t>trig_graph_transform_vertical_shift</t>
-  </si>
-  <si>
-    <t>Graph Transformation (Vertical Shift)</t>
-  </si>
-  <si>
-    <t>三角圖形 (鉛直平移)</t>
-  </si>
-  <si>
-    <t>熟練 y = sin(x) + k 或 y = cos(x) + k 的圖形平移。</t>
-  </si>
-  <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生 y = sin(x) + k 是將 y = sin(x) 的圖形「向上」平移 k 單位。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生標準位置角：始邊在 x 軸正向，逆時針為正角，順時針為負角。並檢查終邊落點。不要直接講答案</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生同界角 = θ ± 360°n (n為整數)。不要直接講答案</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]answer}。如果錯誤，提醒學生 y = a sin(x) 會將圖形沿 y 軸伸縮 a 倍，最大值變為 |a|。不要直接講答案</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]answer}。如果錯誤，提醒學生 y = sin(bx) 會將圖形沿 x 軸伸縮 1/b 倍，週期變為 2π/|b|。不要直接講答案</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]answer}。如果錯誤，提醒學生 y = sin(x**-h**) 是將 y = sin(x) 的圖形「向右」平移 h 單位。不要直接講答案</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]answer}。如果錯誤，提醒學生 y = sin(x) + k 是將 y = sin(x) 的圖形「向上」平移 k 單位。不要直接講答案</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -164,36 +225,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -383,20 +454,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="255.69140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,211 +495,219 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>3550.0</v>
-      </c>
+        <v>3550</v>
+      </c>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>3560.0</v>
-      </c>
+        <v>3560</v>
+      </c>
+      <c r="M3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>3570.0</v>
-      </c>
+        <v>3570</v>
+      </c>
+      <c r="M4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>3580.0</v>
-      </c>
+        <v>3580</v>
+      </c>
+      <c r="M5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>3590.0</v>
-      </c>
+        <v>3590</v>
+      </c>
+      <c r="M6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>3600.0</v>
-      </c>
+        <v>3600</v>
+      </c>
+      <c r="M7" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>